--- a/graph.xlsx
+++ b/graph.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="testfile" localSheetId="0">Sheet1!$C$3:$D$22</definedName>
@@ -40,12 +43,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>time(s)</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>pass5</t>
   </si>
 </sst>
 </file>
@@ -513,7 +534,1176 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9677400279999919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3748847239999979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4737110119999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.648493171999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6567233175999938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4946020259999884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2603206485714225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5883952429999892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2098574497777772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9441711355999924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-554C-4633-87D0-A0E4EEF820FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1719286671"/>
+        <c:axId val="1718574495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1719286671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718574495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1718574495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719286671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7057410328571414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1144855735714172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2938377680952202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6306037199999972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0081667554285616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1250-486E-B91F-B02228605028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1662488063"/>
+        <c:axId val="1661563503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1662488063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661563503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661563503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662488063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.195539466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40883967000000099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32685365699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7943376479999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4404875850000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1877333280000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3202458619999904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4858687309999894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.971607729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0670494569999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.492639480000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.915907043000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.5413230949999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.274321576999903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.01619488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.080217785000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.725790911999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB06-4808-8302-85B3AE766FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="436296895"/>
+        <c:axId val="537270511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="436296895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537270511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537270511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436296895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1069,6 +2259,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1090,6 +3828,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5EFEAB-9229-41BE-9BB4-7E46F4092052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3ED64E-BFA8-4327-A48F-220471D7B0D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4816FE0C-41DF-4D9D-B77D-6CC432890133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B613AA-D20C-4487-802F-A3080BB30324}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +4274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -1595,4 +4456,674 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2.0398029999999898</v>
+      </c>
+      <c r="C2">
+        <v>2.2682728999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.6797273399999899</v>
+      </c>
+      <c r="E2">
+        <v>1.7687096599999901</v>
+      </c>
+      <c r="F2">
+        <v>2.0821872399999899</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>1.9677400279999919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1.1186632600000099</v>
+      </c>
+      <c r="C3">
+        <v>1.69519212</v>
+      </c>
+      <c r="D3">
+        <v>1.0134760599999899</v>
+      </c>
+      <c r="E3">
+        <v>1.3707851799999899</v>
+      </c>
+      <c r="F3">
+        <v>1.676307</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="0">AVERAGE(B3:F3)</f>
+        <v>1.3748847239999979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1.09240181333332</v>
+      </c>
+      <c r="C4">
+        <v>1.51746175999999</v>
+      </c>
+      <c r="D4">
+        <v>1.24131603333333</v>
+      </c>
+      <c r="E4">
+        <v>1.44323711999999</v>
+      </c>
+      <c r="F4">
+        <v>2.0741383333333201</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.4737110119999901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1.3283299799999999</v>
+      </c>
+      <c r="C5">
+        <v>1.263198775</v>
+      </c>
+      <c r="D5">
+        <v>1.65815859499997</v>
+      </c>
+      <c r="E5">
+        <v>1.867546785</v>
+      </c>
+      <c r="F5">
+        <v>2.1252317249999901</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.648493171999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1.6732894599999999</v>
+      </c>
+      <c r="C6">
+        <v>2.6774700720000002</v>
+      </c>
+      <c r="D6">
+        <v>3.0950425439999898</v>
+      </c>
+      <c r="E6">
+        <v>2.9198089199999901</v>
+      </c>
+      <c r="F6">
+        <v>2.9180055919999899</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.6567233175999938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2.81837670333333</v>
+      </c>
+      <c r="C7">
+        <v>3.8180257166666598</v>
+      </c>
+      <c r="D7">
+        <v>3.54590025999999</v>
+      </c>
+      <c r="E7">
+        <v>3.73530148333331</v>
+      </c>
+      <c r="F7">
+        <v>3.5554059666666502</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.4946020259999884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>4.4910080114285602</v>
+      </c>
+      <c r="C8">
+        <v>4.3072111628571399</v>
+      </c>
+      <c r="D8">
+        <v>4.1783715657142801</v>
+      </c>
+      <c r="E8">
+        <v>4.1274847485714199</v>
+      </c>
+      <c r="F8">
+        <v>4.1975277542857103</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.2603206485714225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>4.4638162899999996</v>
+      </c>
+      <c r="C9">
+        <v>4.6949808074999799</v>
+      </c>
+      <c r="D9">
+        <v>4.5489610374999998</v>
+      </c>
+      <c r="E9">
+        <v>4.6268553624999802</v>
+      </c>
+      <c r="F9">
+        <v>4.6073627174999903</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.5883952429999892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>5.2033445511111198</v>
+      </c>
+      <c r="C10">
+        <v>5.2098438600000101</v>
+      </c>
+      <c r="D10">
+        <v>5.0266855488888798</v>
+      </c>
+      <c r="E10">
+        <v>5.2533912511111103</v>
+      </c>
+      <c r="F10">
+        <v>5.3560220377777696</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.2098574497777772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>6.0400588639999899</v>
+      </c>
+      <c r="C11">
+        <v>5.7648886079999997</v>
+      </c>
+      <c r="D11">
+        <v>5.8827366999999704</v>
+      </c>
+      <c r="E11">
+        <v>6.1568156160000003</v>
+      </c>
+      <c r="F11">
+        <v>5.8763558900000001</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(B11:F11)</f>
+        <v>5.9441711355999924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1.79346132999997</v>
+      </c>
+      <c r="C2">
+        <v>1.6674883500000099</v>
+      </c>
+      <c r="D2">
+        <v>1.37507929</v>
+      </c>
+      <c r="E2">
+        <v>1.5347783099999901</v>
+      </c>
+      <c r="F2">
+        <v>2.18686131000003</v>
+      </c>
+      <c r="G2">
+        <v>1.6953320699999801</v>
+      </c>
+      <c r="H2">
+        <v>1.6871865700000099</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1.7057410328571414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2.3151292499999898</v>
+      </c>
+      <c r="C3">
+        <v>2.1502832299999799</v>
+      </c>
+      <c r="D3">
+        <v>1.61768894999999</v>
+      </c>
+      <c r="E3">
+        <v>2.120025735</v>
+      </c>
+      <c r="F3">
+        <v>2.7266998299999998</v>
+      </c>
+      <c r="G3">
+        <v>1.57594824499996</v>
+      </c>
+      <c r="H3">
+        <v>2.2956237750000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="0">AVERAGE(B3:H3)</f>
+        <v>2.1144855735714172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>2.14252325333333</v>
+      </c>
+      <c r="C4">
+        <v>3.50860352666664</v>
+      </c>
+      <c r="D4">
+        <v>3.2643377999999701</v>
+      </c>
+      <c r="E4">
+        <v>3.3088166399999701</v>
+      </c>
+      <c r="F4">
+        <v>3.6785732999999801</v>
+      </c>
+      <c r="G4">
+        <v>3.1288459633333301</v>
+      </c>
+      <c r="H4">
+        <v>4.0251638933333203</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.2938377680952202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2.45348483499999</v>
+      </c>
+      <c r="C5">
+        <v>5.0481276024999904</v>
+      </c>
+      <c r="D5">
+        <v>4.6463390275000096</v>
+      </c>
+      <c r="E5">
+        <v>4.6634989925000001</v>
+      </c>
+      <c r="F5">
+        <v>5.2208145775000103</v>
+      </c>
+      <c r="G5">
+        <v>5.0903472624999901</v>
+      </c>
+      <c r="H5">
+        <v>5.2916137424999903</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>4.6306037199999972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>5.80965567799998</v>
+      </c>
+      <c r="C6">
+        <v>6.04794064599999</v>
+      </c>
+      <c r="D6">
+        <v>6.2286221799999799</v>
+      </c>
+      <c r="E6">
+        <v>5.6931321579999796</v>
+      </c>
+      <c r="F6">
+        <v>6.1448037639999997</v>
+      </c>
+      <c r="G6">
+        <v>6.3215366880000001</v>
+      </c>
+      <c r="H6">
+        <v>5.8114761740000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6.0081667554285616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.195539466</v>
+      </c>
+      <c r="C2">
+        <f>A2^2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.40883967000000099</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C18" si="0">A3^2</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>1.32685365699999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>2.7943376479999902</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>3.4404875850000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>5.1877333280000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <v>7.3202458619999904</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>160</v>
+      </c>
+      <c r="B9">
+        <v>9.4858687309999894</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>11.971607729</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>15.0670494569999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>220</v>
+      </c>
+      <c r="B12">
+        <v>21.492639480000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>240</v>
+      </c>
+      <c r="B13">
+        <v>25.915907043000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>260</v>
+      </c>
+      <c r="B14">
+        <v>28.5413230949999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>280</v>
+      </c>
+      <c r="B15">
+        <v>34.274321576999903</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <v>38.01619488</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>43.080217785000002</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <v>47.725790911999901</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>115600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>